--- a/input/calorimetry/ds.4.cut.overfilled/data.xlsx
+++ b/input/calorimetry/ds.4.cut.overfilled/data.xlsx
@@ -1099,10 +1099,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1117,672 +1117,757 @@
       <c r="A1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="B2" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.000328</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O1" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="S1" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="T1" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="U1" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V1" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="W1" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="X1" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="0" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>0.00399999999999978</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AK2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AL2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AM2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AN2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AO2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AP2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AQ2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AR2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="B3" s="0" t="n">
-        <v>0.000328</v>
+        <v>0.004</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.000338</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>0.00034</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>0.000342</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>0.00034</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>0.000344</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>0.000341</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>0.000341</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>0.000344</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>0.000342</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>0.00034</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>0.000342</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>0.000342</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>0.000341</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>0.00034</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.000344</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.000341</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.000335</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>0.000329</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>0.000326</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>0.000316</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>0.000315</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>0.000305</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>0.000299</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>0.000286</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>0.000273</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.00399999999999978</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>0.000256</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>0.000245</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>0.000224</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>0.000206</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>0.000182</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>0.000155</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>0.000139</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C35" s="0" t="n">
         <v>0.000124</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>0.000107</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C37" s="0" t="n">
         <v>9.2E-005</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C38" s="0" t="n">
         <v>8.1E-005</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C39" s="0" t="n">
         <v>7E-005</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C40" s="0" t="n">
         <v>6.2E-005</v>
       </c>
-      <c r="AO3" s="0" t="n">
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C41" s="0" t="n">
         <v>5.6E-005</v>
       </c>
-      <c r="AP3" s="0" t="n">
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>4.5E-005</v>
       </c>
-      <c r="AQ3" s="0" t="n">
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <v>4.2E-005</v>
       </c>
-      <c r="AR3" s="0" t="n">
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C44" s="0" t="n">
         <v>3.4E-005</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AE5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AH5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AI5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AJ5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AK5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AL5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AM5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AN5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AO5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AP5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AQ5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AR5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-    </row>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
